--- a/data/trans_camb/P45C_R2-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P45C_R2-Habitat-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-8.337107758631955</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5.134187086112862</v>
+        <v>5.134187086112857</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>4.123460553963532</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.608813785896945</v>
+        <v>-2.613324463187598</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-12.0194358445933</v>
+        <v>-11.96445432124025</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8705116349653816</v>
+        <v>0.4025819398302935</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.7047328218692566</v>
+        <v>0.7498566753848652</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-4.704283153951219</v>
+        <v>-4.65415812525362</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>3.995916707378134</v>
+        <v>3.996259536486477</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2225336691700967</v>
+        <v>-0.01753945207002349</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-7.400859633742536</v>
+        <v>-7.418901257616488</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>3.310165318875915</v>
+        <v>3.472508094633792</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.199730056999293</v>
+        <v>5.42775203460994</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-4.876885310278792</v>
+        <v>-4.907577974557952</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10.07341761863697</v>
+        <v>9.736055532261977</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.346923845356934</v>
+        <v>7.650823404645409</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.9597450794763488</v>
+        <v>1.166083377889884</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>10.38132103768676</v>
+        <v>10.11368759519815</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>5.307054803837385</v>
+        <v>5.381918559181475</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-2.851860299276149</v>
+        <v>-2.756413088171072</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>8.900121796262136</v>
+        <v>8.937339801428584</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.5087007583716611</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.3132698940616991</v>
+        <v>0.3132698940616988</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.4370339425300379</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1386393756657469</v>
+        <v>-0.1378979176708383</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.6481431939590991</v>
+        <v>-0.6457657467914654</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.03673975654291028</v>
+        <v>0.01644078341469182</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.05574028841790776</v>
+        <v>0.05881828123563044</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4334736428996448</v>
+        <v>-0.4138664969700962</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3328266202819238</v>
+        <v>0.3729983611522373</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0177653531721492</v>
+        <v>-0.002262907736686506</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.5255547532178866</v>
+        <v>-0.5151414285064776</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.2373705350408439</v>
+        <v>0.2332747195460605</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.3567467855521858</v>
+        <v>0.3824571781983969</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.3274972791554432</v>
+        <v>-0.3180911125673541</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.6790347695284762</v>
+        <v>0.6752372078869878</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.9210453121193322</v>
+        <v>0.958217139870623</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1207218583897736</v>
+        <v>0.152639761720734</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.313056106502657</v>
+        <v>1.290831490841421</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4503939389444936</v>
+        <v>0.4633302938030138</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.2385119051699913</v>
+        <v>-0.2322929017353051</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.7709695991579294</v>
+        <v>0.7554552943578654</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>-3.628149724089313</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-1.501750095127113</v>
+        <v>-1.501750095127116</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>1.156298376431199</v>
@@ -878,7 +878,7 @@
         <v>-1.540368308583409</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.7210574621345611</v>
+        <v>0.7210574621345583</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.045586373124822</v>
+        <v>-4.203837867564484</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-6.728381060493989</v>
+        <v>-7.082107073822913</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-5.042402252543557</v>
+        <v>-5.115442315764216</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.492295552455969</v>
+        <v>-1.661307690155001</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.505448514455136</v>
+        <v>-2.394504707657374</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.3446671488610729</v>
+        <v>-0.06163696647717552</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-2.089914206251271</v>
+        <v>-2.171769988716385</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-4.01777962785461</v>
+        <v>-3.689313840590306</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-1.540937976171795</v>
+        <v>-1.552448364669086</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.937686192428824</v>
+        <v>2.601267439673848</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-0.153140084136699</v>
+        <v>-0.3378639275489543</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.218157483950927</v>
+        <v>2.123236932976618</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.530414829466569</v>
+        <v>4.226241277343282</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.330412184473887</v>
+        <v>3.470078539650868</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>5.841637896087683</v>
+        <v>5.826958258302766</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.523633771560025</v>
+        <v>2.432101891470875</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.6206459487437388</v>
+        <v>0.5452633820654067</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>3.066366938117883</v>
+        <v>2.892018450048536</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.2180787228670829</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.09026632518398768</v>
+        <v>-0.09026632518398785</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.09932552755340521</v>
@@ -983,7 +983,7 @@
         <v>-0.1090065776625403</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.05102676146175023</v>
+        <v>0.05102676146175003</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2252801626646394</v>
+        <v>-0.2267010481329269</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3668729354514672</v>
+        <v>-0.3801104291047397</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2730177314478326</v>
+        <v>-0.272584187498931</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1138594075741998</v>
+        <v>-0.1292740806621234</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1842865990064875</v>
+        <v>-0.18330865499403</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0143160137682696</v>
+        <v>-0.01291221553808787</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1371928773950608</v>
+        <v>-0.1409146651992586</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2567150521558889</v>
+        <v>-0.2394335276408154</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.1007049759307464</v>
+        <v>-0.1008706180972059</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1943572365645946</v>
+        <v>0.1724788063400836</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.01043628779848301</v>
+        <v>-0.02148035607970828</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.1586797505338816</v>
+        <v>0.1543284841863573</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.4414847823663388</v>
+        <v>0.4107030768682534</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3404965712251398</v>
+        <v>0.3512628034787499</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5578492657057547</v>
+        <v>0.5644996246906447</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1936011960231985</v>
+        <v>0.1874790269128193</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.04837503634590138</v>
+        <v>0.03952302990390569</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.2329709535006105</v>
+        <v>0.228623705840383</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>0.8698197567214155</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3.865166634263237</v>
+        <v>3.865166634263234</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>-0.1948585765527477</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.6356693887024345</v>
+        <v>-0.5216873229390048</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.438493065447549</v>
+        <v>-2.906317902171186</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.3505825560515511</v>
+        <v>-0.07241685707269896</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.753908698743284</v>
+        <v>-4.336399601056409</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.09764164463638558</v>
+        <v>-0.3241880080746051</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-4.726356174296212</v>
+        <v>-4.473697379008596</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.8155750833080698</v>
+        <v>-1.112382545550922</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.4939729928138474</v>
+        <v>-0.5875938370257308</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.490346845199723</v>
+        <v>-1.416978081222628</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.958667705775811</v>
+        <v>7.913703573764547</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.621943091246396</v>
+        <v>4.775896231846463</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.822229145947496</v>
+        <v>8.432941115746953</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.651206817520071</v>
+        <v>3.253927247916314</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>7.513349935919961</v>
+        <v>7.366390409052226</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.314599614398103</v>
+        <v>2.796243588951619</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>4.567560467102332</v>
+        <v>4.246223676143912</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>5.011676613180816</v>
+        <v>4.812533667041611</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>4.153155202154426</v>
+        <v>4.071584954431662</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.05929095430931564</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.2634677087282934</v>
+        <v>0.2634677087282932</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.01345185247885108</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.03219689273583681</v>
+        <v>-0.03577720971388791</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.2000725661917138</v>
+        <v>-0.1849751250463264</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.02379170663763293</v>
+        <v>-0.01822447725038237</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.2321750531495208</v>
+        <v>-0.2605171899535429</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.007613988727779088</v>
+        <v>-0.02000526804730732</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2930031574838262</v>
+        <v>-0.2765006361036696</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.05106701051732243</v>
+        <v>-0.07187297293298928</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.03335086804363795</v>
+        <v>-0.03683023294549382</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.09207518177025534</v>
+        <v>-0.08840285001875473</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.5520765414873733</v>
+        <v>0.6232795641423136</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.3774557291460953</v>
+        <v>0.3708493806079731</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.6117716213649931</v>
+        <v>0.6496225291113426</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.296211044935114</v>
+        <v>0.2561665738525503</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.6191755304107539</v>
+        <v>0.5677571947638939</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1842641401183656</v>
+        <v>0.2295152170568139</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3454588194447026</v>
+        <v>0.3216697789972772</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.3794612834230694</v>
+        <v>0.3605669419408192</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.3199348239263416</v>
+        <v>0.3060977194961138</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>1.200726568853558</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-0.5226573394921635</v>
+        <v>-0.5226573394921608</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-0.3210310584840087</v>
@@ -1297,7 +1297,7 @@
         <v>1.605382203790684</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-3.846301768204141</v>
+        <v>-3.846301768204138</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>1.646822446347371</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.5750226705604365</v>
+        <v>0.3302946668326889</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.05841500297355</v>
+        <v>-2.132384206993862</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-3.691141874975404</v>
+        <v>-3.702097017217631</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.206765183003871</v>
+        <v>-3.340323359095295</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.15617601305226</v>
+        <v>-1.549580369172572</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-6.513409913448136</v>
+        <v>-6.525221037313744</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.5022922473749314</v>
+        <v>-0.7473023724530641</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.8554682961840214</v>
+        <v>-0.9200050664539343</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-4.412152534015214</v>
+        <v>-4.486491279489589</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.335894221666289</v>
+        <v>7.203951148272604</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.589504016131972</v>
+        <v>4.483473784859634</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.687622964840524</v>
+        <v>2.650764197801104</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.585196111821749</v>
+        <v>3.146002010802376</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>4.74510274358406</v>
+        <v>4.633466286030233</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-1.035385928881665</v>
+        <v>-1.219913157512039</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.879388219460811</v>
+        <v>3.82068865722668</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>3.767947218329262</v>
+        <v>3.420019438613284</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-0.2839822561316881</v>
+        <v>-0.3378141288206252</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.08001708352275917</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.03483017455660894</v>
+        <v>-0.03483017455660876</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.02327297131976238</v>
@@ -1402,7 +1402,7 @@
         <v>0.1163813064147455</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.27883554681992</v>
+        <v>-0.2788355468199198</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.114596761133544</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.02994120070510213</v>
+        <v>0.0241788909617914</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1291686793783142</v>
+        <v>-0.1295871950190776</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2259858063852482</v>
+        <v>-0.2233226292992138</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2123431694772423</v>
+        <v>-0.2145937189644805</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.07683076863065005</v>
+        <v>-0.0997559828937194</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.4284459854954628</v>
+        <v>-0.4252115010644391</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.0276716110351466</v>
+        <v>-0.0486720275531527</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.05648527451302442</v>
+        <v>-0.05920122391141407</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.2838204395953327</v>
+        <v>-0.2923624946448892</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.5434793618124708</v>
+        <v>0.5456564476154649</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.3466687747051859</v>
+        <v>0.3338435051790968</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.1944862655690456</v>
+        <v>0.20126960812427</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.2173372395713592</v>
+        <v>0.2537471520757222</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3952496524614317</v>
+        <v>0.3711143155830838</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.08101353114485706</v>
+        <v>-0.1020815752379988</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2951111463861371</v>
+        <v>0.2860946644765118</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2845802960446507</v>
+        <v>0.250640586477109</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.01447141246831012</v>
+        <v>-0.02509642779092205</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-2.242189858137591</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1.261103334331695</v>
+        <v>1.261103334331692</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>1.044556028593433</v>
@@ -1520,7 +1520,7 @@
         <v>-0.5232645023454913</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>1.056623925760802</v>
+        <v>1.0566239257608</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.06622070778239657</v>
+        <v>0.2731823426102983</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-3.986410375242274</v>
+        <v>-4.05008378575258</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-0.6250860393297274</v>
+        <v>-0.6659694663788989</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.6536665826892744</v>
+        <v>-0.4795985570031193</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.5186220735446002</v>
+        <v>-0.4312409768194229</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.6324445590698938</v>
+        <v>-0.6579284390409582</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.09849638654531409</v>
+        <v>0.2460968883682084</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-1.823698902453653</v>
+        <v>-1.656935430264377</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-0.178604743616358</v>
+        <v>-0.2613744224421445</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.654207083794293</v>
+        <v>3.90281624007352</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-0.5681369108383352</v>
+        <v>-0.4028835851513905</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.152015350757253</v>
+        <v>3.25327392828053</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>2.64873093477296</v>
+        <v>2.662376021302183</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>2.861019852893569</v>
+        <v>2.689356948465256</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>2.335915481538734</v>
+        <v>2.268606434826397</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.569269022531421</v>
+        <v>2.711979658451723</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.5925277666929781</v>
+        <v>0.6403023480586735</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>2.269128011459571</v>
+        <v>2.329383290423835</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.1427437054794612</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.0802851561751928</v>
+        <v>0.08028515617519262</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.08404970234024291</v>
@@ -1625,7 +1625,7 @@
         <v>-0.03726266855465028</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.07524421579536453</v>
+        <v>0.07524421579536433</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.004022827000894903</v>
+        <v>0.01555307509895703</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2429049616113139</v>
+        <v>-0.2454987308018482</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.0391449229789194</v>
+        <v>-0.04000088966867789</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.04942600046857013</v>
+        <v>-0.03818415460415221</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.03848823263433983</v>
+        <v>-0.03309472442729072</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.04620901504306296</v>
+        <v>-0.05339193849699218</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.007057888362958075</v>
+        <v>0.01767738133253718</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.122483578804335</v>
+        <v>-0.1143386121112516</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.01195121452231336</v>
+        <v>-0.0180002187443293</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.2480266317550494</v>
+        <v>0.2662793106801971</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.03943681156796661</v>
+        <v>-0.02860773564240275</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.2127058811665749</v>
+        <v>0.2184155858971447</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.2285627093224976</v>
+        <v>0.224843778935804</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.2444164054829601</v>
+        <v>0.2275725862022043</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.1994850151828822</v>
+        <v>0.1936025783310784</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1906173093577858</v>
+        <v>0.2009259223453746</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.0447385698943473</v>
+        <v>0.04782360001918044</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.1701982093561753</v>
+        <v>0.1726512769589415</v>
       </c>
     </row>
     <row r="34">
